--- a/Docs/Project_Plan_Gantt_Chart.xlsx
+++ b/Docs/Project_Plan_Gantt_Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny Holmes\Documents\Uni\Final_Project\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny Holmes\Documents\Uni\Final-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="AE69" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="0" windowWidth="20580" windowHeight="8415"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="27840" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BM$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BM$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$5:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="167">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>Page Orientation as desired.</t>
-  </si>
-  <si>
-    <t>[Task Category]</t>
   </si>
   <si>
     <t>[Task]</t>
@@ -2328,13 +2325,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2355,15 +2361,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3115,11 +3112,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN51"/>
+  <dimension ref="A1:BN41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3137,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -3145,7 +3142,7 @@
       <c r="E1" s="132"/>
       <c r="F1" s="132"/>
       <c r="J1" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
@@ -3153,39 +3150,39 @@
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
       <c r="D2" s="133"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="143" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
+      <c r="J2" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="141"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="144"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3246,15 +3243,15 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="142">
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="145">
         <v>42767</v>
       </c>
-      <c r="F4" s="142"/>
+      <c r="F4" s="145"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
         <v>42765</v>
@@ -3485,178 +3482,178 @@
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B5" s="138" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
+      <c r="B5" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="129">
         <v>1</v>
       </c>
       <c r="F5" s="130"/>
-      <c r="J5" s="137" t="str">
+      <c r="J5" s="136" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137" t="str">
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137" t="str">
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137" t="str">
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137" t="str">
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137" t="str">
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137" t="str">
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137" t="str">
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B6" s="16"/>
-      <c r="J6" s="146">
+      <c r="J6" s="137">
         <f>J4</f>
         <v>42765</v>
       </c>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146">
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137">
         <f>Q4</f>
         <v>42772</v>
       </c>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146">
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="137">
         <f>X4</f>
         <v>42779</v>
       </c>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146">
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="137"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="137"/>
+      <c r="AC6" s="137"/>
+      <c r="AD6" s="137"/>
+      <c r="AE6" s="137">
         <f>AE4</f>
         <v>42786</v>
       </c>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146">
+      <c r="AF6" s="137"/>
+      <c r="AG6" s="137"/>
+      <c r="AH6" s="137"/>
+      <c r="AI6" s="137"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="137"/>
+      <c r="AL6" s="137">
         <f>AL4</f>
         <v>42793</v>
       </c>
-      <c r="AM6" s="146"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="146"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146">
+      <c r="AM6" s="137"/>
+      <c r="AN6" s="137"/>
+      <c r="AO6" s="137"/>
+      <c r="AP6" s="137"/>
+      <c r="AQ6" s="137"/>
+      <c r="AR6" s="137"/>
+      <c r="AS6" s="137">
         <f>AS4</f>
         <v>42800</v>
       </c>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="146"/>
-      <c r="AZ6" s="146">
+      <c r="AT6" s="137"/>
+      <c r="AU6" s="137"/>
+      <c r="AV6" s="137"/>
+      <c r="AW6" s="137"/>
+      <c r="AX6" s="137"/>
+      <c r="AY6" s="137"/>
+      <c r="AZ6" s="137">
         <f>AZ4</f>
         <v>42807</v>
       </c>
-      <c r="BA6" s="146"/>
-      <c r="BB6" s="146"/>
-      <c r="BC6" s="146"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="146"/>
-      <c r="BG6" s="146">
+      <c r="BA6" s="137"/>
+      <c r="BB6" s="137"/>
+      <c r="BC6" s="137"/>
+      <c r="BD6" s="137"/>
+      <c r="BE6" s="137"/>
+      <c r="BF6" s="137"/>
+      <c r="BG6" s="137">
         <f>BG4</f>
         <v>42814</v>
       </c>
-      <c r="BH6" s="146"/>
-      <c r="BI6" s="146"/>
-      <c r="BJ6" s="146"/>
-      <c r="BK6" s="146"/>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="146"/>
+      <c r="BH6" s="137"/>
+      <c r="BI6" s="137"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
     </row>
     <row r="7" spans="1:66" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -3669,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
@@ -3678,10 +3675,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="62" t="s">
         <v>4</v>
@@ -3918,10 +3915,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="86"/>
@@ -3993,10 +3990,10 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="91"/>
       <c r="E9" s="92">
@@ -4080,7 +4077,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="91"/>
@@ -4166,7 +4163,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="91"/>
@@ -4251,7 +4248,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="69"/>
       <c r="D12" s="91"/>
@@ -4336,7 +4333,7 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="69"/>
       <c r="D13" s="91"/>
@@ -4420,7 +4417,7 @@
         <v>1.6</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="91"/>
@@ -4505,7 +4502,7 @@
         <v>1.7</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="91"/>
@@ -4514,14 +4511,14 @@
         <v>42812</v>
       </c>
       <c r="F15" s="93">
-        <f t="shared" si="11"/>
+        <f>IF(G15=0,E15,E15+G15-1)</f>
         <v>42812</v>
       </c>
       <c r="G15" s="94">
         <v>0</v>
       </c>
       <c r="H15" s="95">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="96">
         <f>IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
@@ -4591,7 +4588,7 @@
         <v>1.8</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="69"/>
       <c r="D16" s="91"/>
@@ -4607,7 +4604,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="95">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I16" s="96">
         <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -4752,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="86"/>
@@ -4826,7 +4823,7 @@
         <v>2.1</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="69"/>
       <c r="D19" s="91"/>
@@ -4912,7 +4909,7 @@
         <v>2.2</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="91"/>
@@ -4997,7 +4994,7 @@
         <v>2.3</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="69"/>
       <c r="D21" s="91"/>
@@ -5083,7 +5080,7 @@
         <v>2.4</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="91"/>
@@ -5244,7 +5241,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="85"/>
       <c r="E24" s="86"/>
@@ -5314,11 +5311,11 @@
     </row>
     <row r="25" spans="1:66" s="98" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="90" t="str">
-        <f t="shared" ref="A25:A29" ca="1" si="16">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A25,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))),OFFSET(A25,-1,0,1,1)&amp;".1",LEFT(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A25,-1,0,1,1),LEN(OFFSET(A25,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A25" ca="1" si="16">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A25,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))),OFFSET(A25,-1,0,1,1)&amp;".1",LEFT(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A25,-1,0,1,1),LEN(OFFSET(A25,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="91"/>
@@ -5337,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="96">
-        <f t="shared" ref="I25:I28" si="17">IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
+        <f t="shared" ref="I25" si="17">IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
         <v>1</v>
       </c>
       <c r="J25" s="88"/>
@@ -5398,34 +5395,16 @@
       <c r="BM25" s="88"/>
       <c r="BN25" s="97"/>
     </row>
-    <row r="26" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="90" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.2</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92">
-        <f t="shared" ref="E26:E28" si="18">E25+1</f>
-        <v>42768</v>
-      </c>
-      <c r="F26" s="93">
-        <f t="shared" ref="F26:F28" si="19">IF(G26=0,E26,E26+G26-1)</f>
-        <v>42768</v>
-      </c>
-      <c r="G26" s="94">
-        <v>0</v>
-      </c>
-      <c r="H26" s="95">
-        <v>0</v>
-      </c>
-      <c r="I26" s="96">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
+    <row r="26" spans="1:66" s="101" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="90"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="88"/>
       <c r="K26" s="88"/>
       <c r="L26" s="88"/>
@@ -5482,36 +5461,18 @@
       <c r="BK26" s="88"/>
       <c r="BL26" s="88"/>
       <c r="BM26" s="88"/>
-      <c r="BN26" s="97"/>
-    </row>
-    <row r="27" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="90" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.3</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92">
-        <f t="shared" si="18"/>
-        <v>42769</v>
-      </c>
-      <c r="F27" s="93">
-        <f t="shared" si="19"/>
-        <v>42769</v>
-      </c>
-      <c r="G27" s="94">
-        <v>0</v>
-      </c>
-      <c r="H27" s="95">
-        <v>0</v>
-      </c>
-      <c r="I27" s="96">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
+      <c r="BN26" s="100"/>
+    </row>
+    <row r="27" spans="1:66" s="101" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="90"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="88"/>
       <c r="K27" s="88"/>
       <c r="L27" s="88"/>
@@ -5568,36 +5529,20 @@
       <c r="BK27" s="88"/>
       <c r="BL27" s="88"/>
       <c r="BM27" s="88"/>
-      <c r="BN27" s="97"/>
-    </row>
-    <row r="28" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="90" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.4</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92">
-        <f t="shared" si="18"/>
-        <v>42770</v>
-      </c>
-      <c r="F28" s="93">
-        <f t="shared" si="19"/>
-        <v>42770</v>
-      </c>
-      <c r="G28" s="94">
-        <v>0</v>
-      </c>
-      <c r="H28" s="95">
-        <v>0</v>
-      </c>
-      <c r="I28" s="96">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="BN27" s="100"/>
+    </row>
+    <row r="28" spans="1:66" s="105" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="139"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
       <c r="J28" s="88"/>
       <c r="K28" s="88"/>
       <c r="L28" s="88"/>
@@ -5654,25 +5599,20 @@
       <c r="BK28" s="88"/>
       <c r="BL28" s="88"/>
       <c r="BM28" s="88"/>
-      <c r="BN28" s="97"/>
-    </row>
-    <row r="29" spans="1:66" s="69" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="90" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.5</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="94">
-        <v>0</v>
-      </c>
-      <c r="H29" s="67"/>
-      <c r="I29" s="66"/>
+      <c r="BN28" s="104"/>
+    </row>
+    <row r="29" spans="1:66" s="109" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
       <c r="J29" s="88"/>
       <c r="K29" s="88"/>
       <c r="L29" s="88"/>
@@ -5729,24 +5669,20 @@
       <c r="BK29" s="88"/>
       <c r="BL29" s="88"/>
       <c r="BM29" s="88"/>
-      <c r="BN29" s="99"/>
-    </row>
-    <row r="30" spans="1:66" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A30,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A30,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="94">
-        <v>0</v>
-      </c>
-      <c r="H30" s="67"/>
-      <c r="I30" s="66"/>
+      <c r="BN29" s="104"/>
+    </row>
+    <row r="30" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
       <c r="J30" s="88"/>
       <c r="K30" s="88"/>
       <c r="L30" s="88"/>
@@ -5803,36 +5739,23 @@
       <c r="BK30" s="88"/>
       <c r="BL30" s="88"/>
       <c r="BM30" s="88"/>
-      <c r="BN30" s="89"/>
-    </row>
-    <row r="31" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BN30" s="100"/>
+    </row>
+    <row r="31" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="90" t="str">
-        <f t="shared" ref="A31:A35" ca="1" si="20">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))),OFFSET(A31,-1,0,1,1)&amp;".1",LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A31,-1,0,1,1),LEN(OFFSET(A31,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92">
-        <f>$E$4</f>
-        <v>42767</v>
-      </c>
-      <c r="F31" s="93">
-        <f>IF(G31=0,E31,E31+G31-1)</f>
-        <v>42767</v>
-      </c>
-      <c r="G31" s="94">
-        <v>0</v>
-      </c>
-      <c r="H31" s="95">
-        <v>0</v>
-      </c>
-      <c r="I31" s="96">
-        <f t="shared" ref="I31:I34" si="21">IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A31,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
+      <c r="B31" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="113"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="116"/>
       <c r="J31" s="88"/>
       <c r="K31" s="88"/>
       <c r="L31" s="88"/>
@@ -5889,36 +5812,23 @@
       <c r="BK31" s="88"/>
       <c r="BL31" s="88"/>
       <c r="BM31" s="88"/>
-      <c r="BN31" s="97"/>
-    </row>
-    <row r="32" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BN31" s="100"/>
+    </row>
+    <row r="32" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>4.2</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92">
-        <f t="shared" ref="E32:E34" si="22">E31+1</f>
-        <v>42768</v>
-      </c>
-      <c r="F32" s="93">
-        <f t="shared" ref="F32:F34" si="23">IF(G32=0,E32,E32+G32-1)</f>
-        <v>42768</v>
-      </c>
-      <c r="G32" s="94">
-        <v>0</v>
-      </c>
-      <c r="H32" s="95">
-        <v>0</v>
-      </c>
-      <c r="I32" s="96">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B32" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="116"/>
       <c r="J32" s="88"/>
       <c r="K32" s="88"/>
       <c r="L32" s="88"/>
@@ -5975,36 +5885,23 @@
       <c r="BK32" s="88"/>
       <c r="BL32" s="88"/>
       <c r="BM32" s="88"/>
-      <c r="BN32" s="97"/>
-    </row>
-    <row r="33" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BN32" s="100"/>
+    </row>
+    <row r="33" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="90" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>4.3</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92">
-        <f t="shared" si="22"/>
-        <v>42769</v>
-      </c>
-      <c r="F33" s="93">
-        <f t="shared" si="23"/>
-        <v>42769</v>
-      </c>
-      <c r="G33" s="94">
-        <v>0</v>
-      </c>
-      <c r="H33" s="95">
-        <v>0</v>
-      </c>
-      <c r="I33" s="96">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="118"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="116"/>
       <c r="J33" s="88"/>
       <c r="K33" s="88"/>
       <c r="L33" s="88"/>
@@ -6061,36 +5958,23 @@
       <c r="BK33" s="88"/>
       <c r="BL33" s="88"/>
       <c r="BM33" s="88"/>
-      <c r="BN33" s="97"/>
-    </row>
-    <row r="34" spans="1:66" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BN33" s="100"/>
+    </row>
+    <row r="34" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>4.4</v>
-      </c>
-      <c r="B34" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92">
-        <f t="shared" si="22"/>
-        <v>42770</v>
-      </c>
-      <c r="F34" s="93">
-        <f t="shared" si="23"/>
-        <v>42770</v>
-      </c>
-      <c r="G34" s="94">
-        <v>0</v>
-      </c>
-      <c r="H34" s="95">
-        <v>0</v>
-      </c>
-      <c r="I34" s="96">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",3))),OFFSET(A34,-1,0,1,1)&amp;".1",LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A34,-1,0,1,1),LEN(OFFSET(A34,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B34" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="118"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="116"/>
       <c r="J34" s="88"/>
       <c r="K34" s="88"/>
       <c r="L34" s="88"/>
@@ -6147,23 +6031,20 @@
       <c r="BK34" s="88"/>
       <c r="BL34" s="88"/>
       <c r="BM34" s="88"/>
-      <c r="BN34" s="97"/>
-    </row>
-    <row r="35" spans="1:66" s="69" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>4.5</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="66"/>
+      <c r="BN34" s="100"/>
+    </row>
+    <row r="35" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
       <c r="L35" s="88"/>
@@ -6220,18 +6101,35 @@
       <c r="BK35" s="88"/>
       <c r="BL35" s="88"/>
       <c r="BM35" s="88"/>
-      <c r="BN35" s="99"/>
-    </row>
-    <row r="36" spans="1:66" s="101" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="66"/>
+      <c r="BN35" s="100"/>
+    </row>
+    <row r="36" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A36,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A36,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B36" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="120"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="122">
+        <f>MIN(E37:E40)</f>
+        <v>42095</v>
+      </c>
+      <c r="F36" s="122">
+        <f>MAX(F37:F40)</f>
+        <v>42111</v>
+      </c>
+      <c r="G36" s="116">
+        <f>IF(OR(F36=0,E36=0),0,F36-E36+1)</f>
+        <v>17</v>
+      </c>
+      <c r="H36" s="123"/>
+      <c r="I36" s="96">
+        <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
+        <v>13</v>
+      </c>
       <c r="J36" s="88"/>
       <c r="K36" s="88"/>
       <c r="L36" s="88"/>
@@ -6290,16 +6188,30 @@
       <c r="BM36" s="88"/>
       <c r="BN36" s="100"/>
     </row>
-    <row r="37" spans="1:66" s="101" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="66"/>
+    <row r="37" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="120"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="92">
+        <v>42095</v>
+      </c>
+      <c r="F37" s="93">
+        <f>IF(G37=0,E37,E37+G37-1)</f>
+        <v>42095</v>
+      </c>
+      <c r="G37" s="94">
+        <v>1</v>
+      </c>
+      <c r="H37" s="95"/>
+      <c r="I37" s="96">
+        <f t="shared" ref="I37" si="18">IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
+        <v>1</v>
+      </c>
       <c r="J37" s="88"/>
       <c r="K37" s="88"/>
       <c r="L37" s="88"/>
@@ -6358,18 +6270,31 @@
       <c r="BM37" s="88"/>
       <c r="BN37" s="100"/>
     </row>
-    <row r="38" spans="1:66" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="144" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="145"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
+    <row r="38" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),OFFSET(A38,-1,0,1,1)&amp;".1",LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A38,-1,0,1,1),LEN(OFFSET(A38,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B38" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="118"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92">
+        <v>42095</v>
+      </c>
+      <c r="F38" s="93">
+        <f>IF(G38=0,E38,E38+G38-1)</f>
+        <v>42097</v>
+      </c>
+      <c r="G38" s="94">
+        <v>3</v>
+      </c>
+      <c r="H38" s="95"/>
+      <c r="I38" s="96">
+        <f>IF(OR(F38=0,E38=0),0,NETWORKDAYS(E38,F38))</f>
+        <v>3</v>
+      </c>
       <c r="J38" s="88"/>
       <c r="K38" s="88"/>
       <c r="L38" s="88"/>
@@ -6426,20 +6351,34 @@
       <c r="BK38" s="88"/>
       <c r="BL38" s="88"/>
       <c r="BM38" s="88"/>
-      <c r="BN38" s="104"/>
-    </row>
-    <row r="39" spans="1:66" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
+      <c r="BN38" s="100"/>
+    </row>
+    <row r="39" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),OFFSET(A39,-1,0,1,1)&amp;".1",LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A39,-1,0,1,1),LEN(OFFSET(A39,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B39" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="118"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92">
+        <f>F38+1</f>
+        <v>42098</v>
+      </c>
+      <c r="F39" s="93">
+        <f t="shared" ref="F39:F40" si="19">IF(G39=0,E39,E39+G39-1)</f>
+        <v>42104</v>
+      </c>
+      <c r="G39" s="94">
+        <v>7</v>
+      </c>
+      <c r="H39" s="95"/>
+      <c r="I39" s="96">
+        <f t="shared" ref="I39:I40" si="20">IF(OR(F39=0,E39=0),0,NETWORKDAYS(E39,F39))</f>
+        <v>5</v>
+      </c>
       <c r="J39" s="88"/>
       <c r="K39" s="88"/>
       <c r="L39" s="88"/>
@@ -6496,20 +6435,34 @@
       <c r="BK39" s="88"/>
       <c r="BL39" s="88"/>
       <c r="BM39" s="88"/>
-      <c r="BN39" s="104"/>
+      <c r="BN39" s="100"/>
     </row>
     <row r="40" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
+      <c r="A40" s="90" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A40,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))),OFFSET(A40,-1,0,1,1)&amp;".1",LEFT(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A40,-1,0,1,1),LEN(OFFSET(A40,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A40,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A40,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.3</v>
+      </c>
+      <c r="B40" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="118"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92">
+        <f>WORKDAY(F39,1)</f>
+        <v>42107</v>
+      </c>
+      <c r="F40" s="93">
+        <f t="shared" si="19"/>
+        <v>42111</v>
+      </c>
+      <c r="G40" s="94">
+        <v>5</v>
+      </c>
+      <c r="H40" s="95"/>
+      <c r="I40" s="96">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
       <c r="J40" s="88"/>
       <c r="K40" s="88"/>
       <c r="L40" s="88"/>
@@ -6568,872 +6521,77 @@
       <c r="BM40" s="88"/>
       <c r="BN40" s="100"/>
     </row>
-    <row r="41" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A41,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A41,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A41,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A41,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B41" s="113" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="113"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="88"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="88"/>
-      <c r="AI41" s="88"/>
-      <c r="AJ41" s="88"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="88"/>
-      <c r="AM41" s="88"/>
-      <c r="AN41" s="88"/>
-      <c r="AO41" s="88"/>
-      <c r="AP41" s="88"/>
-      <c r="AQ41" s="88"/>
-      <c r="AR41" s="88"/>
-      <c r="AS41" s="88"/>
-      <c r="AT41" s="88"/>
-      <c r="AU41" s="88"/>
-      <c r="AV41" s="88"/>
-      <c r="AW41" s="88"/>
-      <c r="AX41" s="88"/>
-      <c r="AY41" s="88"/>
-      <c r="AZ41" s="88"/>
-      <c r="BA41" s="88"/>
-      <c r="BB41" s="88"/>
-      <c r="BC41" s="88"/>
-      <c r="BD41" s="88"/>
-      <c r="BE41" s="88"/>
-      <c r="BF41" s="88"/>
-      <c r="BG41" s="88"/>
-      <c r="BH41" s="88"/>
-      <c r="BI41" s="88"/>
-      <c r="BJ41" s="88"/>
-      <c r="BK41" s="88"/>
-      <c r="BL41" s="88"/>
-      <c r="BM41" s="88"/>
+    <row r="41" spans="1:66" s="128" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="125"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="126"/>
+      <c r="N41" s="126"/>
+      <c r="O41" s="126"/>
+      <c r="P41" s="126"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="126"/>
+      <c r="S41" s="126"/>
+      <c r="T41" s="126"/>
+      <c r="U41" s="126"/>
+      <c r="V41" s="126"/>
+      <c r="W41" s="126"/>
+      <c r="X41" s="126"/>
+      <c r="Y41" s="126"/>
+      <c r="Z41" s="126"/>
+      <c r="AA41" s="126"/>
+      <c r="AB41" s="126"/>
+      <c r="AC41" s="126"/>
+      <c r="AD41" s="126"/>
+      <c r="AE41" s="126"/>
+      <c r="AF41" s="126"/>
+      <c r="AG41" s="126"/>
+      <c r="AH41" s="126"/>
+      <c r="AI41" s="126"/>
+      <c r="AJ41" s="126"/>
+      <c r="AK41" s="126"/>
+      <c r="AL41" s="126"/>
+      <c r="AM41" s="126"/>
+      <c r="AN41" s="126"/>
+      <c r="AO41" s="126"/>
+      <c r="AP41" s="126"/>
+      <c r="AQ41" s="126"/>
+      <c r="AR41" s="126"/>
+      <c r="AS41" s="126"/>
+      <c r="AT41" s="126"/>
+      <c r="AU41" s="126"/>
+      <c r="AV41" s="126"/>
+      <c r="AW41" s="126"/>
+      <c r="AX41" s="126"/>
+      <c r="AY41" s="126"/>
+      <c r="AZ41" s="126"/>
+      <c r="BA41" s="126"/>
+      <c r="BB41" s="126"/>
+      <c r="BC41" s="126"/>
+      <c r="BD41" s="126"/>
+      <c r="BE41" s="126"/>
+      <c r="BF41" s="126"/>
+      <c r="BG41" s="126"/>
+      <c r="BH41" s="126"/>
+      <c r="BI41" s="126"/>
+      <c r="BJ41" s="126"/>
+      <c r="BK41" s="126"/>
+      <c r="BL41" s="126"/>
+      <c r="BM41" s="126"/>
       <c r="BN41" s="100"/>
-    </row>
-    <row r="42" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A42,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))),OFFSET(A42,-1,0,1,1)&amp;".1",LEFT(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A42,-1,0,1,1),LEN(OFFSET(A42,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A42,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A42,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B42" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="88"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="88"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="88"/>
-      <c r="AI42" s="88"/>
-      <c r="AJ42" s="88"/>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="88"/>
-      <c r="AN42" s="88"/>
-      <c r="AO42" s="88"/>
-      <c r="AP42" s="88"/>
-      <c r="AQ42" s="88"/>
-      <c r="AR42" s="88"/>
-      <c r="AS42" s="88"/>
-      <c r="AT42" s="88"/>
-      <c r="AU42" s="88"/>
-      <c r="AV42" s="88"/>
-      <c r="AW42" s="88"/>
-      <c r="AX42" s="88"/>
-      <c r="AY42" s="88"/>
-      <c r="AZ42" s="88"/>
-      <c r="BA42" s="88"/>
-      <c r="BB42" s="88"/>
-      <c r="BC42" s="88"/>
-      <c r="BD42" s="88"/>
-      <c r="BE42" s="88"/>
-      <c r="BF42" s="88"/>
-      <c r="BG42" s="88"/>
-      <c r="BH42" s="88"/>
-      <c r="BI42" s="88"/>
-      <c r="BJ42" s="88"/>
-      <c r="BK42" s="88"/>
-      <c r="BL42" s="88"/>
-      <c r="BM42" s="88"/>
-      <c r="BN42" s="100"/>
-    </row>
-    <row r="43" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A43,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",2))),OFFSET(A43,-1,0,1,1)&amp;".1",LEFT(OFFSET(A43,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A43,-1,0,1,1),LEN(OFFSET(A43,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A43,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A43,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B43" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="88"/>
-      <c r="AA43" s="88"/>
-      <c r="AB43" s="88"/>
-      <c r="AC43" s="88"/>
-      <c r="AD43" s="88"/>
-      <c r="AE43" s="88"/>
-      <c r="AF43" s="88"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="88"/>
-      <c r="AI43" s="88"/>
-      <c r="AJ43" s="88"/>
-      <c r="AK43" s="88"/>
-      <c r="AL43" s="88"/>
-      <c r="AM43" s="88"/>
-      <c r="AN43" s="88"/>
-      <c r="AO43" s="88"/>
-      <c r="AP43" s="88"/>
-      <c r="AQ43" s="88"/>
-      <c r="AR43" s="88"/>
-      <c r="AS43" s="88"/>
-      <c r="AT43" s="88"/>
-      <c r="AU43" s="88"/>
-      <c r="AV43" s="88"/>
-      <c r="AW43" s="88"/>
-      <c r="AX43" s="88"/>
-      <c r="AY43" s="88"/>
-      <c r="AZ43" s="88"/>
-      <c r="BA43" s="88"/>
-      <c r="BB43" s="88"/>
-      <c r="BC43" s="88"/>
-      <c r="BD43" s="88"/>
-      <c r="BE43" s="88"/>
-      <c r="BF43" s="88"/>
-      <c r="BG43" s="88"/>
-      <c r="BH43" s="88"/>
-      <c r="BI43" s="88"/>
-      <c r="BJ43" s="88"/>
-      <c r="BK43" s="88"/>
-      <c r="BL43" s="88"/>
-      <c r="BM43" s="88"/>
-      <c r="BN43" s="100"/>
-    </row>
-    <row r="44" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A44,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",3))),OFFSET(A44,-1,0,1,1)&amp;".1",LEFT(OFFSET(A44,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A44,-1,0,1,1),LEN(OFFSET(A44,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A44,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A44,-1,0,1,1),".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B44" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="88"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="88"/>
-      <c r="AI44" s="88"/>
-      <c r="AJ44" s="88"/>
-      <c r="AK44" s="88"/>
-      <c r="AL44" s="88"/>
-      <c r="AM44" s="88"/>
-      <c r="AN44" s="88"/>
-      <c r="AO44" s="88"/>
-      <c r="AP44" s="88"/>
-      <c r="AQ44" s="88"/>
-      <c r="AR44" s="88"/>
-      <c r="AS44" s="88"/>
-      <c r="AT44" s="88"/>
-      <c r="AU44" s="88"/>
-      <c r="AV44" s="88"/>
-      <c r="AW44" s="88"/>
-      <c r="AX44" s="88"/>
-      <c r="AY44" s="88"/>
-      <c r="AZ44" s="88"/>
-      <c r="BA44" s="88"/>
-      <c r="BB44" s="88"/>
-      <c r="BC44" s="88"/>
-      <c r="BD44" s="88"/>
-      <c r="BE44" s="88"/>
-      <c r="BF44" s="88"/>
-      <c r="BG44" s="88"/>
-      <c r="BH44" s="88"/>
-      <c r="BI44" s="88"/>
-      <c r="BJ44" s="88"/>
-      <c r="BK44" s="88"/>
-      <c r="BL44" s="88"/>
-      <c r="BM44" s="88"/>
-      <c r="BN44" s="100"/>
-    </row>
-    <row r="45" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="88"/>
-      <c r="AI45" s="88"/>
-      <c r="AJ45" s="88"/>
-      <c r="AK45" s="88"/>
-      <c r="AL45" s="88"/>
-      <c r="AM45" s="88"/>
-      <c r="AN45" s="88"/>
-      <c r="AO45" s="88"/>
-      <c r="AP45" s="88"/>
-      <c r="AQ45" s="88"/>
-      <c r="AR45" s="88"/>
-      <c r="AS45" s="88"/>
-      <c r="AT45" s="88"/>
-      <c r="AU45" s="88"/>
-      <c r="AV45" s="88"/>
-      <c r="AW45" s="88"/>
-      <c r="AX45" s="88"/>
-      <c r="AY45" s="88"/>
-      <c r="AZ45" s="88"/>
-      <c r="BA45" s="88"/>
-      <c r="BB45" s="88"/>
-      <c r="BC45" s="88"/>
-      <c r="BD45" s="88"/>
-      <c r="BE45" s="88"/>
-      <c r="BF45" s="88"/>
-      <c r="BG45" s="88"/>
-      <c r="BH45" s="88"/>
-      <c r="BI45" s="88"/>
-      <c r="BJ45" s="88"/>
-      <c r="BK45" s="88"/>
-      <c r="BL45" s="88"/>
-      <c r="BM45" s="88"/>
-      <c r="BN45" s="100"/>
-    </row>
-    <row r="46" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A46,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A46,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A46,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A46,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B46" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="122">
-        <f>MIN(E47:E50)</f>
-        <v>42095</v>
-      </c>
-      <c r="F46" s="122">
-        <f>MAX(F47:F50)</f>
-        <v>42111</v>
-      </c>
-      <c r="G46" s="116">
-        <f>IF(OR(F46=0,E46=0),0,F46-E46+1)</f>
-        <v>17</v>
-      </c>
-      <c r="H46" s="123"/>
-      <c r="I46" s="96">
-        <f>IF(OR(F46=0,E46=0),0,NETWORKDAYS(E46,F46))</f>
-        <v>13</v>
-      </c>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-      <c r="AA46" s="88"/>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="88"/>
-      <c r="AD46" s="88"/>
-      <c r="AE46" s="88"/>
-      <c r="AF46" s="88"/>
-      <c r="AG46" s="88"/>
-      <c r="AH46" s="88"/>
-      <c r="AI46" s="88"/>
-      <c r="AJ46" s="88"/>
-      <c r="AK46" s="88"/>
-      <c r="AL46" s="88"/>
-      <c r="AM46" s="88"/>
-      <c r="AN46" s="88"/>
-      <c r="AO46" s="88"/>
-      <c r="AP46" s="88"/>
-      <c r="AQ46" s="88"/>
-      <c r="AR46" s="88"/>
-      <c r="AS46" s="88"/>
-      <c r="AT46" s="88"/>
-      <c r="AU46" s="88"/>
-      <c r="AV46" s="88"/>
-      <c r="AW46" s="88"/>
-      <c r="AX46" s="88"/>
-      <c r="AY46" s="88"/>
-      <c r="AZ46" s="88"/>
-      <c r="BA46" s="88"/>
-      <c r="BB46" s="88"/>
-      <c r="BC46" s="88"/>
-      <c r="BD46" s="88"/>
-      <c r="BE46" s="88"/>
-      <c r="BF46" s="88"/>
-      <c r="BG46" s="88"/>
-      <c r="BH46" s="88"/>
-      <c r="BI46" s="88"/>
-      <c r="BJ46" s="88"/>
-      <c r="BK46" s="88"/>
-      <c r="BL46" s="88"/>
-      <c r="BM46" s="88"/>
-      <c r="BN46" s="100"/>
-    </row>
-    <row r="47" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="120"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="92">
-        <v>42095</v>
-      </c>
-      <c r="F47" s="93">
-        <f>IF(G47=0,E47,E47+G47-1)</f>
-        <v>42095</v>
-      </c>
-      <c r="G47" s="94">
-        <v>1</v>
-      </c>
-      <c r="H47" s="95"/>
-      <c r="I47" s="96">
-        <f t="shared" ref="I47" si="24">IF(OR(F47=0,E47=0),0,NETWORKDAYS(E47,F47))</f>
-        <v>1</v>
-      </c>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="88"/>
-      <c r="AD47" s="88"/>
-      <c r="AE47" s="88"/>
-      <c r="AF47" s="88"/>
-      <c r="AG47" s="88"/>
-      <c r="AH47" s="88"/>
-      <c r="AI47" s="88"/>
-      <c r="AJ47" s="88"/>
-      <c r="AK47" s="88"/>
-      <c r="AL47" s="88"/>
-      <c r="AM47" s="88"/>
-      <c r="AN47" s="88"/>
-      <c r="AO47" s="88"/>
-      <c r="AP47" s="88"/>
-      <c r="AQ47" s="88"/>
-      <c r="AR47" s="88"/>
-      <c r="AS47" s="88"/>
-      <c r="AT47" s="88"/>
-      <c r="AU47" s="88"/>
-      <c r="AV47" s="88"/>
-      <c r="AW47" s="88"/>
-      <c r="AX47" s="88"/>
-      <c r="AY47" s="88"/>
-      <c r="AZ47" s="88"/>
-      <c r="BA47" s="88"/>
-      <c r="BB47" s="88"/>
-      <c r="BC47" s="88"/>
-      <c r="BD47" s="88"/>
-      <c r="BE47" s="88"/>
-      <c r="BF47" s="88"/>
-      <c r="BG47" s="88"/>
-      <c r="BH47" s="88"/>
-      <c r="BI47" s="88"/>
-      <c r="BJ47" s="88"/>
-      <c r="BK47" s="88"/>
-      <c r="BL47" s="88"/>
-      <c r="BM47" s="88"/>
-      <c r="BN47" s="100"/>
-    </row>
-    <row r="48" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A48,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))),OFFSET(A48,-1,0,1,1)&amp;".1",LEFT(OFFSET(A48,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A48,-1,0,1,1),LEN(OFFSET(A48,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A48,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B48" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="118"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="92">
-        <v>42095</v>
-      </c>
-      <c r="F48" s="93">
-        <f>IF(G48=0,E48,E48+G48-1)</f>
-        <v>42097</v>
-      </c>
-      <c r="G48" s="94">
-        <v>3</v>
-      </c>
-      <c r="H48" s="95"/>
-      <c r="I48" s="96">
-        <f>IF(OR(F48=0,E48=0),0,NETWORKDAYS(E48,F48))</f>
-        <v>3</v>
-      </c>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="88"/>
-      <c r="AD48" s="88"/>
-      <c r="AE48" s="88"/>
-      <c r="AF48" s="88"/>
-      <c r="AG48" s="88"/>
-      <c r="AH48" s="88"/>
-      <c r="AI48" s="88"/>
-      <c r="AJ48" s="88"/>
-      <c r="AK48" s="88"/>
-      <c r="AL48" s="88"/>
-      <c r="AM48" s="88"/>
-      <c r="AN48" s="88"/>
-      <c r="AO48" s="88"/>
-      <c r="AP48" s="88"/>
-      <c r="AQ48" s="88"/>
-      <c r="AR48" s="88"/>
-      <c r="AS48" s="88"/>
-      <c r="AT48" s="88"/>
-      <c r="AU48" s="88"/>
-      <c r="AV48" s="88"/>
-      <c r="AW48" s="88"/>
-      <c r="AX48" s="88"/>
-      <c r="AY48" s="88"/>
-      <c r="AZ48" s="88"/>
-      <c r="BA48" s="88"/>
-      <c r="BB48" s="88"/>
-      <c r="BC48" s="88"/>
-      <c r="BD48" s="88"/>
-      <c r="BE48" s="88"/>
-      <c r="BF48" s="88"/>
-      <c r="BG48" s="88"/>
-      <c r="BH48" s="88"/>
-      <c r="BI48" s="88"/>
-      <c r="BJ48" s="88"/>
-      <c r="BK48" s="88"/>
-      <c r="BL48" s="88"/>
-      <c r="BM48" s="88"/>
-      <c r="BN48" s="100"/>
-    </row>
-    <row r="49" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A49,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))),OFFSET(A49,-1,0,1,1)&amp;".1",LEFT(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A49,-1,0,1,1),LEN(OFFSET(A49,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B49" s="118" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92">
-        <f>F48+1</f>
-        <v>42098</v>
-      </c>
-      <c r="F49" s="93">
-        <f t="shared" ref="F49:F50" si="25">IF(G49=0,E49,E49+G49-1)</f>
-        <v>42104</v>
-      </c>
-      <c r="G49" s="94">
-        <v>7</v>
-      </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="96">
-        <f t="shared" ref="I49:I50" si="26">IF(OR(F49=0,E49=0),0,NETWORKDAYS(E49,F49))</f>
-        <v>5</v>
-      </c>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="88"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="88"/>
-      <c r="AD49" s="88"/>
-      <c r="AE49" s="88"/>
-      <c r="AF49" s="88"/>
-      <c r="AG49" s="88"/>
-      <c r="AH49" s="88"/>
-      <c r="AI49" s="88"/>
-      <c r="AJ49" s="88"/>
-      <c r="AK49" s="88"/>
-      <c r="AL49" s="88"/>
-      <c r="AM49" s="88"/>
-      <c r="AN49" s="88"/>
-      <c r="AO49" s="88"/>
-      <c r="AP49" s="88"/>
-      <c r="AQ49" s="88"/>
-      <c r="AR49" s="88"/>
-      <c r="AS49" s="88"/>
-      <c r="AT49" s="88"/>
-      <c r="AU49" s="88"/>
-      <c r="AV49" s="88"/>
-      <c r="AW49" s="88"/>
-      <c r="AX49" s="88"/>
-      <c r="AY49" s="88"/>
-      <c r="AZ49" s="88"/>
-      <c r="BA49" s="88"/>
-      <c r="BB49" s="88"/>
-      <c r="BC49" s="88"/>
-      <c r="BD49" s="88"/>
-      <c r="BE49" s="88"/>
-      <c r="BF49" s="88"/>
-      <c r="BG49" s="88"/>
-      <c r="BH49" s="88"/>
-      <c r="BI49" s="88"/>
-      <c r="BJ49" s="88"/>
-      <c r="BK49" s="88"/>
-      <c r="BL49" s="88"/>
-      <c r="BM49" s="88"/>
-      <c r="BN49" s="100"/>
-    </row>
-    <row r="50" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="90" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A50,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))),OFFSET(A50,-1,0,1,1)&amp;".1",LEFT(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A50,-1,0,1,1),LEN(OFFSET(A50,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A50,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A50,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B50" s="118" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="118"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="92">
-        <f>WORKDAY(F49,1)</f>
-        <v>42107</v>
-      </c>
-      <c r="F50" s="93">
-        <f t="shared" si="25"/>
-        <v>42111</v>
-      </c>
-      <c r="G50" s="94">
-        <v>5</v>
-      </c>
-      <c r="H50" s="95"/>
-      <c r="I50" s="96">
-        <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="88"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="88"/>
-      <c r="AD50" s="88"/>
-      <c r="AE50" s="88"/>
-      <c r="AF50" s="88"/>
-      <c r="AG50" s="88"/>
-      <c r="AH50" s="88"/>
-      <c r="AI50" s="88"/>
-      <c r="AJ50" s="88"/>
-      <c r="AK50" s="88"/>
-      <c r="AL50" s="88"/>
-      <c r="AM50" s="88"/>
-      <c r="AN50" s="88"/>
-      <c r="AO50" s="88"/>
-      <c r="AP50" s="88"/>
-      <c r="AQ50" s="88"/>
-      <c r="AR50" s="88"/>
-      <c r="AS50" s="88"/>
-      <c r="AT50" s="88"/>
-      <c r="AU50" s="88"/>
-      <c r="AV50" s="88"/>
-      <c r="AW50" s="88"/>
-      <c r="AX50" s="88"/>
-      <c r="AY50" s="88"/>
-      <c r="AZ50" s="88"/>
-      <c r="BA50" s="88"/>
-      <c r="BB50" s="88"/>
-      <c r="BC50" s="88"/>
-      <c r="BD50" s="88"/>
-      <c r="BE50" s="88"/>
-      <c r="BF50" s="88"/>
-      <c r="BG50" s="88"/>
-      <c r="BH50" s="88"/>
-      <c r="BI50" s="88"/>
-      <c r="BJ50" s="88"/>
-      <c r="BK50" s="88"/>
-      <c r="BL50" s="88"/>
-      <c r="BM50" s="88"/>
-      <c r="BN50" s="100"/>
-    </row>
-    <row r="51" spans="1:66" s="128" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="125"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
-      <c r="N51" s="126"/>
-      <c r="O51" s="126"/>
-      <c r="P51" s="126"/>
-      <c r="Q51" s="126"/>
-      <c r="R51" s="126"/>
-      <c r="S51" s="126"/>
-      <c r="T51" s="126"/>
-      <c r="U51" s="126"/>
-      <c r="V51" s="126"/>
-      <c r="W51" s="126"/>
-      <c r="X51" s="126"/>
-      <c r="Y51" s="126"/>
-      <c r="Z51" s="126"/>
-      <c r="AA51" s="126"/>
-      <c r="AB51" s="126"/>
-      <c r="AC51" s="126"/>
-      <c r="AD51" s="126"/>
-      <c r="AE51" s="126"/>
-      <c r="AF51" s="126"/>
-      <c r="AG51" s="126"/>
-      <c r="AH51" s="126"/>
-      <c r="AI51" s="126"/>
-      <c r="AJ51" s="126"/>
-      <c r="AK51" s="126"/>
-      <c r="AL51" s="126"/>
-      <c r="AM51" s="126"/>
-      <c r="AN51" s="126"/>
-      <c r="AO51" s="126"/>
-      <c r="AP51" s="126"/>
-      <c r="AQ51" s="126"/>
-      <c r="AR51" s="126"/>
-      <c r="AS51" s="126"/>
-      <c r="AT51" s="126"/>
-      <c r="AU51" s="126"/>
-      <c r="AV51" s="126"/>
-      <c r="AW51" s="126"/>
-      <c r="AX51" s="126"/>
-      <c r="AY51" s="126"/>
-      <c r="AZ51" s="126"/>
-      <c r="BA51" s="126"/>
-      <c r="BB51" s="126"/>
-      <c r="BC51" s="126"/>
-      <c r="BD51" s="126"/>
-      <c r="BE51" s="126"/>
-      <c r="BF51" s="126"/>
-      <c r="BG51" s="126"/>
-      <c r="BH51" s="126"/>
-      <c r="BI51" s="126"/>
-      <c r="BJ51" s="126"/>
-      <c r="BK51" s="126"/>
-      <c r="BL51" s="126"/>
-      <c r="BM51" s="126"/>
-      <c r="BN51" s="100"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Gyg07Wicfuhr5ivKKRwD7m93lmrchT15p2Fi19Q/s/HmKRdOseyZf7dnsiPiO1gjIFLrp/RFUJ1zZow6dpbUng==" saltValue="UwcbeFYaIUQbeaRPJ0q4QQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="24">
-    <mergeCell ref="BG5:BM5"/>
-    <mergeCell ref="BG6:BM6"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AS5:AY5"/>
-    <mergeCell ref="AS6:AY6"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="AZ5:BF5"/>
-    <mergeCell ref="AZ6:BF6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q5:W5"/>
     <mergeCell ref="J5:P5"/>
@@ -7443,9 +6601,24 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="J2:Z2"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="AZ6:BF6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="BG5:BM5"/>
+    <mergeCell ref="BG6:BM6"/>
+    <mergeCell ref="AL6:AR6"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="AS6:AY6"/>
+    <mergeCell ref="AL5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H46 H48:H50">
+  <conditionalFormatting sqref="H38:H40 H8:H36">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7464,7 +6637,7 @@
       <formula>AND(TODAY()&gt;=J4,TODAY()&lt;K4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:BM50">
+  <conditionalFormatting sqref="J8:BM40">
     <cfRule type="expression" dxfId="1" priority="17">
       <formula>J$4=TODAY()</formula>
     </cfRule>
@@ -7472,7 +6645,7 @@
       <formula>AND($E8&lt;K$4,$F8&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7494,8 +6667,8 @@
   <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E35:I45 A17:B17 F46:I46 I47 A49:A50 B47 F47 A48 F48 H48:I48 F49:F50 I49:I50 E49:E50 E46 A46:B46 B45 I9 F10 I10 I11 F12 I12 F13 F14 I14 E15:F15 I15 E16:F16 I16 E17:F18 H17:I18 A8 A9 A10 A21:B23 A18 A19 E21:F34 F19 A26:B44 A24 A11 A12 A13 A25 H26:I34 I25 H21:I24 I19 A20 F20 I20 A14 A15 A16" unlockedFormula="1"/>
-    <ignoredError sqref="A47" numberStoredAsText="1" unlockedFormula="1"/>
+    <ignoredError sqref="E26:I35 A17:B17 F36:I36 I37 A39:A40 B37 F37 A38 F38 H38:I38 F39:F40 I39:I40 E39:E40 E36 A36:B36 B35 I9 F10 I10 I11 F12 I12 F13 F14 I14 E15 I15 E16:F16 I16 E17:F18 H17:I18 A8 A9 A10 A21:B23 A18 A19 E21:F25 F19 A26:B34 A24 A11 A12 A13 A25 I25 H21:I24 I19 A20 F20 I20 A14 A15 A16" unlockedFormula="1"/>
+    <ignoredError sqref="A37" numberStoredAsText="1" unlockedFormula="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
   <extLst>
@@ -7514,7 +6687,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H46 H48:H50</xm:sqref>
+          <xm:sqref>H38:H40 H8:H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5E3B0E97-54C6-4C3F-ADB1-A6BFE39A7A9C}">
@@ -7529,7 +6702,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7553,17 +6726,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7571,165 +6744,165 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:2" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:2" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B50" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7761,13 +6934,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="82"/>
@@ -7785,37 +6958,37 @@
     </row>
     <row r="5" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7827,7 +7000,7 @@
     </row>
     <row r="17" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>9</v>
@@ -7835,12 +7008,12 @@
     </row>
     <row r="18" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>13</v>
@@ -7848,32 +7021,32 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -7881,33 +7054,33 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="147"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -7915,7 +7088,7 @@
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B35" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -7923,12 +7096,12 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B38" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -7936,7 +7109,7 @@
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -7944,7 +7117,7 @@
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B42" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -7952,12 +7125,12 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B45" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7969,7 +7142,7 @@
     </row>
     <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -7977,85 +7150,85 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>62</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="44" t="s">
         <v>64</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
       <c r="B53" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
       <c r="B54" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="44" t="s">
         <v>67</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
       <c r="B56" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
       <c r="B57" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="44" t="s">
         <v>71</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
       <c r="B59" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -8063,13 +7236,13 @@
     </row>
     <row r="63" spans="1:2" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" s="147"/>
     </row>
     <row r="64" spans="1:2" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B64" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -8077,13 +7250,13 @@
     </row>
     <row r="66" spans="1:2" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="147"/>
     </row>
     <row r="67" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -8100,12 +7273,12 @@
         <v>17</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -8116,27 +7289,27 @@
         <v>17</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B74" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B77" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -8144,7 +7317,7 @@
         <v>17</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -8167,17 +7340,17 @@
         <v>17</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B85" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -8191,18 +7364,18 @@
         <v>17</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="46"/>
       <c r="B99" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8258,14 +7431,14 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="32"/>
     </row>
@@ -8277,7 +7450,7 @@
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="32"/>
     </row>
@@ -8289,7 +7462,7 @@
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="32"/>
     </row>
@@ -8301,7 +7474,7 @@
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="32"/>
     </row>
@@ -8313,7 +7486,7 @@
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="32"/>
     </row>
@@ -8325,14 +7498,14 @@
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="32"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
       <c r="B15" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="32"/>
     </row>
@@ -8344,7 +7517,7 @@
     <row r="17" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="32"/>
     </row>
